--- a/avito/monuments.xlsx
+++ b/avito/monuments.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isk78\YandexDisk\Раб\реклама\рекламная компания\памятники\автозагрузка авито\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\prodom\avito\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8016356-5998-4816-B25C-CFD6EB5DA60C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C923687-ED64-4C87-9933-8D6FD2485E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2833,8 +2833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y640"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
